--- a/Project Outputs for toaster/BOM/Bill of Materials-toaster.xlsx
+++ b/Project Outputs for toaster/BOM/Bill of Materials-toaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.demontmo\Desktop\CRH\hw-toaster\Project Outputs for toaster\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\work\heig-vd\teaching\rbt\eda\toaster\Project Outputs for toaster\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EDF520-04DF-4B99-9076-EBE16FA8AD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88648E5D-113A-4F1C-8BC5-C8443572F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="1620" windowWidth="12435" windowHeight="17880"/>
+    <workbookView xWindow="5415" yWindow="1455" windowWidth="21600" windowHeight="12645" xr2:uid="{6466DADE-2D15-4B7B-8B54-75EE3D2A43F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-toaster" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D8681C-6384-4FF1-9C44-62234B123558}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
